--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/sub_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/sub_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,31 +390,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>91</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>93</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>95</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>97</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>99</v>
@@ -454,15 +454,15 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>104</v>
@@ -470,81 +470,89 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -555,7 +563,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -575,162 +583,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>125</v>
+      <c r="B22">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +756,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,161 +776,169 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>124</v>
       </c>
     </row>
@@ -925,7 +949,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -945,162 +969,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>124</v>
+      <c r="B22">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1130,162 +1162,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>124</v>
+      <c r="B22">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1315,162 +1355,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>126</v>
+      <c r="B22">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1528,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1500,162 +1548,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>128</v>
+      <c r="B22">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1685,162 +1741,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>128</v>
+      <c r="B22">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1870,162 +1934,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>123</v>
+      <c r="B22">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2055,162 +2127,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>119</v>
+      <c r="B22">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2240,23 +2320,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>51</v>
@@ -2264,138 +2344,146 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>114</v>
+      <c r="B22">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2425,7 +2513,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -2433,7 +2521,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>84</v>
@@ -2441,7 +2529,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>86</v>
@@ -2449,7 +2537,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -2457,7 +2545,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>90</v>
@@ -2465,121 +2553,129 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2590,7 +2686,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,23 +2706,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>48</v>
@@ -2634,15 +2730,15 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>51</v>
@@ -2650,7 +2746,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -2658,7 +2754,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -2666,15 +2762,15 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>57</v>
@@ -2682,7 +2778,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -2690,7 +2786,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>61</v>
@@ -2698,7 +2794,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>63</v>
@@ -2706,66 +2802,74 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>110</v>
+      <c r="B22">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2879,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2795,7 +2899,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -2803,7 +2907,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -2811,7 +2915,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>84</v>
@@ -2819,7 +2923,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>86</v>
@@ -2827,7 +2931,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>88</v>
@@ -2835,121 +2939,129 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2960,7 +3072,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2980,7 +3092,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>78</v>
@@ -2988,7 +3100,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>80</v>
@@ -2996,145 +3108,153 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3145,7 +3265,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3165,162 +3285,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>130</v>
+      <c r="B22">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3330,7 +3458,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3350,162 +3478,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>130</v>
+      <c r="B22">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3515,7 +3651,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3535,162 +3671,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>129</v>
+      <c r="B22">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3844,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3720,162 +3864,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>128</v>
+      <c r="B22">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3885,7 +4037,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3905,162 +4057,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>126</v>
+      <c r="B22">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
